--- a/data/trans_dic/MCS12_SP_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4856911192750928</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4533406084989728</v>
+        <v>0.4533406084989727</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4469373389636811</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3646622066216753</v>
+        <v>0.360984557341076</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.456619443321067</v>
+        <v>0.4537819804900273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4306933280529064</v>
+        <v>0.4273444238885727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.373526429152572</v>
+        <v>0.3725769172164874</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4495998325552308</v>
+        <v>0.451844932722576</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.500257677580174</v>
+        <v>0.502880819231705</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4285715684602326</v>
+        <v>0.428248277754164</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4158404572828998</v>
+        <v>0.4136537180125495</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4093924726198302</v>
+        <v>0.4104237657696126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4918211067114571</v>
+        <v>0.4880576601057744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4463254399551301</v>
+        <v>0.4435943932673511</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4045190348124822</v>
+        <v>0.4039879785295604</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.457011224160809</v>
+        <v>0.4552795399902565</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5577772245644887</v>
+        <v>0.5598822098719751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5286979262239185</v>
+        <v>0.524698229869681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4640346152364117</v>
+        <v>0.4659831644114732</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5652572870041981</v>
+        <v>0.5661030287296223</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6207250643885494</v>
+        <v>0.6213768332473186</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5398630111227455</v>
+        <v>0.5348746072175741</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.493047245084514</v>
+        <v>0.4919258522675287</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4827162815252399</v>
+        <v>0.4859135336746313</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5669064750933023</v>
+        <v>0.5662301083888523</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5166898946032282</v>
+        <v>0.5172646954880562</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4662967517384683</v>
+        <v>0.4627470606378318</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.4965789860755301</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4253404595203132</v>
+        <v>0.4253404595203131</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3374122400199355</v>
+        <v>0.3388619397852912</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4290063247544255</v>
+        <v>0.4252622516154158</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4103277724300343</v>
+        <v>0.410141264932814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3205294687916571</v>
+        <v>0.3178851932828157</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4971179013903466</v>
+        <v>0.5023130006780097</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5877437629201416</v>
+        <v>0.5868870222164474</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4829897364095289</v>
+        <v>0.4794503252908344</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4511285672928935</v>
+        <v>0.4486728767638353</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4324198939481631</v>
+        <v>0.4322967660461192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5094920850251922</v>
+        <v>0.5144136056380827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4563638592576242</v>
+        <v>0.4601997274726294</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3942584956376791</v>
+        <v>0.3972243620213965</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.443628293480946</v>
+        <v>0.4445635312057172</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5333205714164106</v>
+        <v>0.5337934329202975</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5187589589934309</v>
+        <v>0.5116990683890281</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4108056861726624</v>
+        <v>0.4112720622564357</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6006751791639701</v>
+        <v>0.5997015398188702</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7066216090962073</v>
+        <v>0.6958231074852328</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5828887620481404</v>
+        <v>0.5851837910202852</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5359961102241014</v>
+        <v>0.5338055043747199</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5062004017012381</v>
+        <v>0.5090081249467849</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5882702983864035</v>
+        <v>0.5913326596627909</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5374106368671481</v>
+        <v>0.5346466080493041</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4570989775903905</v>
+        <v>0.4569205132208315</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.5310382869714643</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4748694812909127</v>
+        <v>0.4748694812909128</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4059373434766422</v>
+        <v>0.4036890095021768</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4903774353506781</v>
+        <v>0.4894972739849648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4647529429749221</v>
+        <v>0.4641364732498407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4041358193771245</v>
+        <v>0.4033464335553165</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5022957388298881</v>
+        <v>0.4985629971713916</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5904376533337515</v>
+        <v>0.5984030465868502</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5261088200691221</v>
+        <v>0.5184747552919449</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4792278370959172</v>
+        <v>0.4780056946901122</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4396450141440965</v>
+        <v>0.4415132607195923</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5336373150080936</v>
+        <v>0.5361766770202477</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4905399511897806</v>
+        <v>0.4900030169241457</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4387591456408663</v>
+        <v>0.43432931220929</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.491105224353289</v>
+        <v>0.4917919389068626</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.571068562450204</v>
+        <v>0.5713690751291286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5532886730050951</v>
+        <v>0.5515722317790318</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4951484266836255</v>
+        <v>0.4930499702268339</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6423149286034778</v>
+        <v>0.6440519918326538</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7106136847512674</v>
+        <v>0.7152621959646545</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6847570246627235</v>
+        <v>0.6805648960519733</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6014388640020323</v>
+        <v>0.6034462883933023</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5167872732162967</v>
+        <v>0.5152455709406145</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6030686261321641</v>
+        <v>0.6010024601107276</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5673430116288489</v>
+        <v>0.5661806180450202</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5133349994312431</v>
+        <v>0.511270732522436</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4544540681626275</v>
+        <v>0.4544252820160478</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4809783012366409</v>
+        <v>0.4841500112162124</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4762129096144103</v>
+        <v>0.4741992242114473</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3986060747081988</v>
+        <v>0.4030399425956693</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4942327750107883</v>
+        <v>0.4980332114084746</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5754933338636083</v>
+        <v>0.5709223104491009</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5199966198219375</v>
+        <v>0.5188579673339943</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4635593372002012</v>
+        <v>0.466207932028542</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.479278409674535</v>
+        <v>0.4785708946344574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5297370685355843</v>
+        <v>0.5302442417180173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5004194662114673</v>
+        <v>0.5031594166243264</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4360551358202387</v>
+        <v>0.4349609502001525</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5112488367789625</v>
+        <v>0.5101741034285862</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5439672453534931</v>
+        <v>0.5437158139717899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5338186472084877</v>
+        <v>0.5362388081689113</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4634667228296708</v>
+        <v>0.465000492734171</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5687942854013489</v>
+        <v>0.5733126622109919</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6472875513406806</v>
+        <v>0.6476804990977573</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5875523938856643</v>
+        <v>0.5853083074706137</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5266127677252445</v>
+        <v>0.5216003752998006</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5266966124600057</v>
+        <v>0.5232317955474418</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5753291414565401</v>
+        <v>0.5738989574561698</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5457938057707612</v>
+        <v>0.5473852863427699</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.480915766826706</v>
+        <v>0.4792789650272949</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5056322217195693</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4531665040291155</v>
+        <v>0.4531665040291156</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5846749930919123</v>
@@ -1229,7 +1229,7 @@
         <v>0.6300418279031054</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5495121520369979</v>
+        <v>0.549512152036998</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5258025490608456</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3775398852885495</v>
+        <v>0.3814656842875266</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4159148256349628</v>
+        <v>0.4198130080446031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4648041760821409</v>
+        <v>0.4660251779170724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.406516053307762</v>
+        <v>0.4061657246741456</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5419888068381818</v>
+        <v>0.5424197603806121</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6126132345102508</v>
+        <v>0.6134564230174443</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5916807518328446</v>
+        <v>0.5923216960709533</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5197723186538873</v>
+        <v>0.5157112023547322</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4935304441600868</v>
+        <v>0.4903341735846481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5466052551074353</v>
+        <v>0.5435287154470886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5455156815241379</v>
+        <v>0.5419666100848005</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4851406591314062</v>
+        <v>0.4863922154573191</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4895440903503007</v>
+        <v>0.4848794263102582</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5131931138960779</v>
+        <v>0.5099046316805352</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5465654019515879</v>
+        <v>0.549159585028575</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5005491694208528</v>
+        <v>0.4978641962174145</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6218851390057704</v>
+        <v>0.6266288849769426</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6847857645986092</v>
+        <v>0.6870977944153102</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.664744577983192</v>
+        <v>0.6668342725318886</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5774387595666411</v>
+        <v>0.5770483458507508</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5611743714251369</v>
+        <v>0.5575277958548028</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6017543174217498</v>
+        <v>0.6005619602010182</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6013907224097104</v>
+        <v>0.6010398068855424</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5376688024269757</v>
+        <v>0.5354422745864336</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4700807214292498</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4572205766125982</v>
+        <v>0.4572205766125983</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2449267102710591</v>
+        <v>0.2450849328546591</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2648823293516342</v>
+        <v>0.2674184186785904</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2709835871273865</v>
+        <v>0.2709025667686799</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2037864094140174</v>
+        <v>0.2073589718419979</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5030111437720711</v>
+        <v>0.4987329677864373</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5726610264882788</v>
+        <v>0.5736108677668169</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4764785313610777</v>
+        <v>0.4808818158929491</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4683898244968668</v>
+        <v>0.4709864218915293</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4581479246351911</v>
+        <v>0.4580054379781057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.522178300135864</v>
+        <v>0.5217166699246936</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4416910870505095</v>
+        <v>0.4412978988911956</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.424717060052369</v>
+        <v>0.422621768844743</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3494150277054884</v>
+        <v>0.3438681580354522</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3777009594968672</v>
+        <v>0.3842638393176559</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3830633274204243</v>
+        <v>0.3825625578363352</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3835905538896063</v>
+        <v>0.3920585160687368</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5599542551684232</v>
+        <v>0.5558966340190128</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6329429321329819</v>
+        <v>0.6326147390167667</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5420820482598474</v>
+        <v>0.5418677240936872</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5368044849907798</v>
+        <v>0.5393600994007197</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5114799020899572</v>
+        <v>0.508264623647092</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5780771383905564</v>
+        <v>0.5746884569392762</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4975540901603501</v>
+        <v>0.4952258951427382</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4927169148012462</v>
+        <v>0.4911597450429072</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.5491005796937808</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.506428253242301</v>
+        <v>0.5064282532423012</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.4879302983135065</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4155970198056376</v>
+        <v>0.4150370551219172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4707914193425881</v>
+        <v>0.4726086759671683</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4637521194720804</v>
+        <v>0.4635538087929071</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3978253581553535</v>
+        <v>0.3980554470946984</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5259409925415023</v>
+        <v>0.524256094245763</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6018926356936946</v>
+        <v>0.6029972801538943</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5313099933252082</v>
+        <v>0.5311219382300189</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.491073426711494</v>
+        <v>0.4917651536908778</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4756697522738233</v>
+        <v>0.4747661656935281</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5438541245316157</v>
+        <v>0.5430617835632775</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5047663489501565</v>
+        <v>0.50274892037607</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4502223231477245</v>
+        <v>0.4505438541977345</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4507722706687562</v>
+        <v>0.4502939988441528</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5065646947395555</v>
+        <v>0.5059794199168421</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5000252576810797</v>
+        <v>0.4986696787548066</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.433328444423611</v>
+        <v>0.4355459723354166</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5604221535308223</v>
+        <v>0.5585578212024515</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6346777798363049</v>
+        <v>0.6360405241810858</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5644168655889492</v>
+        <v>0.565983724442379</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5217641790249981</v>
+        <v>0.5214189686140678</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.500351189183239</v>
+        <v>0.4998060733260434</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5671631808459736</v>
+        <v>0.5678421935075771</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5289955460815045</v>
+        <v>0.5284274456618591</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4741743353756387</v>
+        <v>0.4757090454097685</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>172768</v>
+        <v>171026</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>199639</v>
+        <v>198398</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>184807</v>
+        <v>183370</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>204754</v>
+        <v>204234</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>137883</v>
+        <v>138572</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>157308</v>
+        <v>158133</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>148738</v>
+        <v>148626</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>202440</v>
+        <v>201375</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>319513</v>
+        <v>320318</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>369685</v>
+        <v>366856</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>346414</v>
+        <v>344294</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>418672</v>
+        <v>418122</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>216521</v>
+        <v>215701</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>243866</v>
+        <v>244787</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>226860</v>
+        <v>225144</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>254368</v>
+        <v>255436</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>173353</v>
+        <v>173612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>195189</v>
+        <v>195394</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>187362</v>
+        <v>185631</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>240026</v>
+        <v>239480</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>376739</v>
+        <v>379235</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>426124</v>
+        <v>425615</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>401027</v>
+        <v>401473</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>482611</v>
+        <v>478937</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>123808</v>
+        <v>124340</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>179667</v>
+        <v>178099</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>154787</v>
+        <v>154716</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>154562</v>
+        <v>153287</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>184861</v>
+        <v>186793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>198664</v>
+        <v>198374</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>179804</v>
+        <v>178486</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>190596</v>
+        <v>189558</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>319471</v>
+        <v>319380</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>385588</v>
+        <v>389312</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>342045</v>
+        <v>344920</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>356683</v>
+        <v>359366</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>162782</v>
+        <v>163125</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>223353</v>
+        <v>223551</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>195690</v>
+        <v>193027</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>198094</v>
+        <v>198319</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>223370</v>
+        <v>223008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>238846</v>
+        <v>235196</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>216994</v>
+        <v>217848</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>226451</v>
+        <v>225525</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>373980</v>
+        <v>376055</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>445208</v>
+        <v>447525</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>402789</v>
+        <v>400718</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>413535</v>
+        <v>413373</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>220176</v>
+        <v>218956</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>308651</v>
+        <v>308097</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>242561</v>
+        <v>242239</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>189406</v>
+        <v>189036</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>84276</v>
+        <v>83650</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>153590</v>
+        <v>155662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>87399</v>
+        <v>86131</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>89352</v>
+        <v>89124</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>312223</v>
+        <v>313550</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>474694</v>
+        <v>476953</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>337509</v>
+        <v>337140</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>287439</v>
+        <v>284537</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>266370</v>
+        <v>266743</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>359439</v>
+        <v>359628</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>288769</v>
+        <v>287873</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>232060</v>
+        <v>231077</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>107769</v>
+        <v>108060</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>184851</v>
+        <v>186060</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>113754</v>
+        <v>113057</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>112138</v>
+        <v>112512</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>367007</v>
+        <v>365912</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>536456</v>
+        <v>534618</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>390352</v>
+        <v>389553</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>336295</v>
+        <v>334943</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>562766</v>
+        <v>562730</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>557458</v>
+        <v>561134</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>547472</v>
+        <v>545157</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>448942</v>
+        <v>453936</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>353023</v>
+        <v>355738</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>441206</v>
+        <v>437702</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>429453</v>
+        <v>428512</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>398138</v>
+        <v>400412</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>935849</v>
+        <v>934467</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1020097</v>
+        <v>1021074</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>988586</v>
+        <v>993998</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>865635</v>
+        <v>863463</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>633097</v>
+        <v>631766</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>630463</v>
+        <v>630172</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>613698</v>
+        <v>616481</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>521993</v>
+        <v>523721</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>406281</v>
+        <v>409509</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>496248</v>
+        <v>496549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>485245</v>
+        <v>483392</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>452292</v>
+        <v>447987</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1028438</v>
+        <v>1021673</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1107892</v>
+        <v>1105138</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1078223</v>
+        <v>1081367</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>954690</v>
+        <v>951441</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>132348</v>
+        <v>133725</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>212364</v>
+        <v>214355</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>288507</v>
+        <v>289265</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>228842</v>
+        <v>228645</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>308257</v>
+        <v>308502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>466518</v>
+        <v>467161</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>436805</v>
+        <v>437278</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>429310</v>
+        <v>425955</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>453706</v>
+        <v>450768</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>695346</v>
+        <v>691433</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>741329</v>
+        <v>736506</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>673808</v>
+        <v>675546</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>171612</v>
+        <v>169977</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>262034</v>
+        <v>260355</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>339256</v>
+        <v>340867</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>281777</v>
+        <v>280265</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>353698</v>
+        <v>356396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>521479</v>
+        <v>523240</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>490744</v>
+        <v>492286</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>476940</v>
+        <v>476617</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>515892</v>
+        <v>512539</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>765502</v>
+        <v>763986</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>817260</v>
+        <v>816783</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>746764</v>
+        <v>743671</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>73037</v>
+        <v>73085</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>70692</v>
+        <v>71369</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>77812</v>
+        <v>77788</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>48344</v>
+        <v>49191</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>628140</v>
+        <v>622798</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>635282</v>
+        <v>636336</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>515562</v>
+        <v>520326</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>391192</v>
+        <v>393360</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>708737</v>
+        <v>708516</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>718639</v>
+        <v>718004</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>604750</v>
+        <v>604212</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>455472</v>
+        <v>453225</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>104196</v>
+        <v>102542</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>100802</v>
+        <v>102553</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>109995</v>
+        <v>109851</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>90998</v>
+        <v>93007</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>699248</v>
+        <v>694181</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>702156</v>
+        <v>701792</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>586546</v>
+        <v>586314</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>448331</v>
+        <v>450465</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>791239</v>
+        <v>786265</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>795569</v>
+        <v>790905</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>681236</v>
+        <v>678048</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>528396</v>
+        <v>526726</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1359081</v>
+        <v>1357250</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1611006</v>
+        <v>1617224</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1570136</v>
+        <v>1569464</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1362744</v>
+        <v>1363533</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1776694</v>
+        <v>1771002</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2136794</v>
+        <v>2140716</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1876372</v>
+        <v>1875708</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1775608</v>
+        <v>1778109</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3162402</v>
+        <v>3156395</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3791770</v>
+        <v>3786246</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3491629</v>
+        <v>3477674</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3170129</v>
+        <v>3172393</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1474111</v>
+        <v>1472547</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1733419</v>
+        <v>1731416</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1692947</v>
+        <v>1688357</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1484360</v>
+        <v>1491956</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1893176</v>
+        <v>1886878</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2253185</v>
+        <v>2258023</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1993292</v>
+        <v>1998826</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1886579</v>
+        <v>1885331</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3326492</v>
+        <v>3322868</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>3954282</v>
+        <v>3959016</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>3659230</v>
+        <v>3655301</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>3338781</v>
+        <v>3349588</v>
       </c>
     </row>
     <row r="32">
